--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,22 +442,36 @@
           <t>Course</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SR Code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CJ</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bachelor of Science In Information Technology</t>
+          <t>BS In Information Technology</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
     </row>
